--- a/Data files/Lung cancer by state.xlsx
+++ b/Data files/Lung cancer by state.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9928AD-4D02-45DC-9BF7-055A0B1887BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F8694E-2489-4988-A860-40F0256AD89B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>State</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Total of states</t>
   </si>
   <si>
     <t>Lung &amp; bronchus cancer</t>
@@ -193,18 +190,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,21 +247,19 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,30 +542,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83984375" style="1"/>
+    <col min="3" max="3" width="12.578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>4520</v>
       </c>
     </row>
@@ -594,7 +582,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>4550</v>
       </c>
     </row>
@@ -602,7 +590,7 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2970</v>
       </c>
     </row>
@@ -610,7 +598,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>17760</v>
       </c>
     </row>
@@ -618,7 +606,7 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2570</v>
       </c>
     </row>
@@ -626,7 +614,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2750</v>
       </c>
     </row>
@@ -650,7 +638,7 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>18470</v>
       </c>
     </row>
@@ -658,7 +646,7 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>7250</v>
       </c>
     </row>
@@ -674,7 +662,7 @@
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1060</v>
       </c>
     </row>
@@ -682,7 +670,7 @@
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>9600</v>
       </c>
     </row>
@@ -690,7 +678,7 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>5960</v>
       </c>
     </row>
@@ -698,7 +686,7 @@
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>2610</v>
       </c>
     </row>
@@ -706,7 +694,7 @@
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>2160</v>
       </c>
     </row>
@@ -714,7 +702,7 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>4970</v>
       </c>
     </row>
@@ -722,7 +710,7 @@
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>3910</v>
       </c>
     </row>
@@ -730,7 +718,7 @@
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>1530</v>
       </c>
     </row>
@@ -738,7 +726,7 @@
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>4230</v>
       </c>
     </row>
@@ -746,7 +734,7 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>5550</v>
       </c>
     </row>
@@ -754,7 +742,7 @@
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>8590</v>
       </c>
     </row>
@@ -762,7 +750,7 @@
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>3970</v>
       </c>
     </row>
@@ -770,7 +758,7 @@
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>2870</v>
       </c>
     </row>
@@ -778,7 +766,7 @@
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>5570</v>
       </c>
     </row>
@@ -794,7 +782,7 @@
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>1350</v>
       </c>
     </row>
@@ -802,7 +790,7 @@
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>2080</v>
       </c>
     </row>
@@ -810,7 +798,7 @@
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>1240</v>
       </c>
     </row>
@@ -818,7 +806,7 @@
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>5900</v>
       </c>
     </row>
@@ -834,7 +822,7 @@
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>13950</v>
       </c>
     </row>
@@ -842,7 +830,7 @@
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>8830</v>
       </c>
     </row>
@@ -858,7 +846,7 @@
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>10350</v>
       </c>
     </row>
@@ -866,7 +854,7 @@
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>3300</v>
       </c>
     </row>
@@ -874,7 +862,7 @@
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>2990</v>
       </c>
     </row>
@@ -882,7 +870,7 @@
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>11170</v>
       </c>
     </row>
@@ -898,7 +886,7 @@
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>4510</v>
       </c>
     </row>
@@ -914,7 +902,7 @@
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>6410</v>
       </c>
     </row>
@@ -922,7 +910,7 @@
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>15010</v>
       </c>
     </row>
@@ -946,7 +934,7 @@
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>5820</v>
       </c>
     </row>
@@ -954,7 +942,7 @@
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>4780</v>
       </c>
     </row>
@@ -962,7 +950,7 @@
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>2020</v>
       </c>
     </row>
@@ -970,7 +958,7 @@
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>4540</v>
       </c>
     </row>
@@ -983,12 +971,8 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6">
-        <v>235760</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
